--- a/biology/Médecine/Hospice_Barbieux/Hospice_Barbieux.xlsx
+++ b/biology/Médecine/Hospice_Barbieux/Hospice_Barbieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’hospice Barbieux est un monument situé à Roubaix, dans le département du Nord.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hospice Barbieux est un ouvrage réalisé par l'architecte local Louis Barbotin[1].
-Ce bâtiment fait l'objet d’un inscription au titre des monuments historiques depuis le 12 août 1998[1],&lt;ref[2].
-En 2023, le Groupe François 1er, spécialiste de la réhabilitation de bâtiments classés, restaure l'aile Lacordaire pour y créer des appartements adaptés aux seniors[3]. Au début du XXe siècle déjà, le pavillon des Vieux Ménages (rebaptisé Clos-Fleuri) a été entrepris par Albert Bouvy dans le prolongement de l'aile des cuisines pour 50 couples retraités, en exécution d'un legs de l'édile Julien Lagache, trente à quarante ans auparavant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hospice Barbieux est un ouvrage réalisé par l'architecte local Louis Barbotin.
+Ce bâtiment fait l'objet d’un inscription au titre des monuments historiques depuis le 12 août 1998,&lt;ref.
+En 2023, le Groupe François 1er, spécialiste de la réhabilitation de bâtiments classés, restaure l'aile Lacordaire pour y créer des appartements adaptés aux seniors. Au début du XXe siècle déjà, le pavillon des Vieux Ménages (rebaptisé Clos-Fleuri) a été entrepris par Albert Bouvy dans le prolongement de l'aile des cuisines pour 50 couples retraités, en exécution d'un legs de l'édile Julien Lagache, trente à quarante ans auparavant.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé aux 30-35, rue de Barbieux à Roubaix.
 </t>
